--- a/Test Data/test execution controller.xlsx
+++ b/Test Data/test execution controller.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
   <si>
     <t>Sl.no.</t>
   </si>
@@ -114,12 +114,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -489,7 +498,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="15">
+      <c r="C2" t="s" s="24">
         <v>12</v>
       </c>
     </row>
@@ -500,7 +509,7 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="16">
+      <c r="C3" t="s" s="25">
         <v>12</v>
       </c>
     </row>
@@ -511,7 +520,7 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="17">
+      <c r="C4" t="s" s="26">
         <v>12</v>
       </c>
     </row>
@@ -522,7 +531,7 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="18">
+      <c r="C5" t="s" s="27">
         <v>12</v>
       </c>
     </row>
@@ -533,7 +542,7 @@
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="19">
+      <c r="C6" t="s" s="28">
         <v>13</v>
       </c>
     </row>
@@ -544,7 +553,7 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s" s="20">
+      <c r="C7" t="s" s="29">
         <v>13</v>
       </c>
     </row>
@@ -555,7 +564,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="21">
+      <c r="C8" t="s" s="30">
         <v>13</v>
       </c>
     </row>
@@ -566,7 +575,7 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s" s="22">
+      <c r="C9" t="s" s="31">
         <v>12</v>
       </c>
     </row>
@@ -590,6 +599,15 @@
     <hyperlink ref="C7" r:id="rId17"/>
     <hyperlink ref="C8" r:id="rId18"/>
     <hyperlink ref="C9" r:id="rId19"/>
+    <hyperlink ref="C1" r:id="rId20"/>
+    <hyperlink ref="C2" r:id="rId21"/>
+    <hyperlink ref="C3" r:id="rId22"/>
+    <hyperlink ref="C4" r:id="rId23"/>
+    <hyperlink ref="C5" r:id="rId24"/>
+    <hyperlink ref="C6" r:id="rId25"/>
+    <hyperlink ref="C7" r:id="rId26"/>
+    <hyperlink ref="C8" r:id="rId27"/>
+    <hyperlink ref="C9" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test Data/test execution controller.xlsx
+++ b/Test Data/test execution controller.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="15">
   <si>
     <t>Sl.no.</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>2016-08-12</t>
   </si>
 </sst>
 </file>
@@ -114,39 +117,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -498,7 +512,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="24">
+      <c r="C2" t="s" s="35">
         <v>12</v>
       </c>
     </row>
@@ -509,7 +523,7 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="25">
+      <c r="C3" t="s" s="36">
         <v>12</v>
       </c>
     </row>
@@ -520,8 +534,8 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="26">
-        <v>12</v>
+      <c r="C4" t="s" s="37">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1">
@@ -531,8 +545,8 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="27">
-        <v>12</v>
+      <c r="C5" t="s" s="38">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="4" customFormat="1">
@@ -542,7 +556,7 @@
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="28">
+      <c r="C6" t="s" s="39">
         <v>13</v>
       </c>
     </row>
@@ -553,7 +567,7 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s" s="29">
+      <c r="C7" t="s" s="40">
         <v>13</v>
       </c>
     </row>
@@ -564,7 +578,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="30">
+      <c r="C8" t="s" s="41">
         <v>13</v>
       </c>
     </row>
@@ -575,8 +589,8 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s" s="31">
-        <v>12</v>
+      <c r="C9" t="s" s="42">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -608,6 +622,17 @@
     <hyperlink ref="C7" r:id="rId26"/>
     <hyperlink ref="C8" r:id="rId27"/>
     <hyperlink ref="C9" r:id="rId28"/>
+    <hyperlink ref="C1" r:id="rId29"/>
+    <hyperlink ref="C1" r:id="rId30"/>
+    <hyperlink ref="C1" r:id="rId31"/>
+    <hyperlink ref="C2" r:id="rId32"/>
+    <hyperlink ref="C3" r:id="rId33"/>
+    <hyperlink ref="C4" r:id="rId34"/>
+    <hyperlink ref="C5" r:id="rId35"/>
+    <hyperlink ref="C6" r:id="rId36"/>
+    <hyperlink ref="C7" r:id="rId37"/>
+    <hyperlink ref="C8" r:id="rId38"/>
+    <hyperlink ref="C9" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test Data/test execution controller.xlsx
+++ b/Test Data/test execution controller.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="15">
   <si>
     <t>Sl.no.</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>2016-08-24</t>
   </si>
 </sst>
 </file>
@@ -114,39 +117,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+  <cellXfs count="59">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -498,8 +528,8 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="24">
-        <v>12</v>
+      <c r="C2" t="s" s="51">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -509,8 +539,8 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="25">
-        <v>12</v>
+      <c r="C3" t="s" s="52">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -520,8 +550,8 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="26">
-        <v>12</v>
+      <c r="C4" t="s" s="53">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1">
@@ -531,8 +561,8 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="27">
-        <v>12</v>
+      <c r="C5" t="s" s="54">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="4" customFormat="1">
@@ -542,7 +572,7 @@
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="28">
+      <c r="C6" t="s" s="55">
         <v>13</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s" s="29">
+      <c r="C7" t="s" s="56">
         <v>13</v>
       </c>
     </row>
@@ -564,7 +594,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="30">
+      <c r="C8" t="s" s="57">
         <v>13</v>
       </c>
     </row>
@@ -575,8 +605,8 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s" s="31">
-        <v>12</v>
+      <c r="C9" t="s" s="58">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -608,6 +638,33 @@
     <hyperlink ref="C7" r:id="rId26"/>
     <hyperlink ref="C8" r:id="rId27"/>
     <hyperlink ref="C9" r:id="rId28"/>
+    <hyperlink ref="C1" r:id="rId29"/>
+    <hyperlink ref="C2" r:id="rId30"/>
+    <hyperlink ref="C3" r:id="rId31"/>
+    <hyperlink ref="C4" r:id="rId32"/>
+    <hyperlink ref="C5" r:id="rId33"/>
+    <hyperlink ref="C6" r:id="rId34"/>
+    <hyperlink ref="C7" r:id="rId35"/>
+    <hyperlink ref="C8" r:id="rId36"/>
+    <hyperlink ref="C9" r:id="rId37"/>
+    <hyperlink ref="C1" r:id="rId38"/>
+    <hyperlink ref="C2" r:id="rId39"/>
+    <hyperlink ref="C3" r:id="rId40"/>
+    <hyperlink ref="C4" r:id="rId41"/>
+    <hyperlink ref="C5" r:id="rId42"/>
+    <hyperlink ref="C6" r:id="rId43"/>
+    <hyperlink ref="C7" r:id="rId44"/>
+    <hyperlink ref="C8" r:id="rId45"/>
+    <hyperlink ref="C9" r:id="rId46"/>
+    <hyperlink ref="C1" r:id="rId47"/>
+    <hyperlink ref="C2" r:id="rId48"/>
+    <hyperlink ref="C3" r:id="rId49"/>
+    <hyperlink ref="C4" r:id="rId50"/>
+    <hyperlink ref="C5" r:id="rId51"/>
+    <hyperlink ref="C6" r:id="rId52"/>
+    <hyperlink ref="C7" r:id="rId53"/>
+    <hyperlink ref="C8" r:id="rId54"/>
+    <hyperlink ref="C9" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test Data/test execution controller.xlsx
+++ b/Test Data/test execution controller.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="16">
   <si>
     <t>Sl.no.</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>2016-08-24</t>
+  </si>
+  <si>
+    <t>2016-08-25</t>
   </si>
 </sst>
 </file>
@@ -117,66 +120,102 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+  <cellXfs count="95">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -528,8 +567,8 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="51">
-        <v>13</v>
+      <c r="C2" t="s" s="87">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,8 +578,8 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="52">
-        <v>13</v>
+      <c r="C3" t="s" s="88">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,8 +589,8 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="53">
-        <v>13</v>
+      <c r="C4" t="s" s="89">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1">
@@ -561,8 +600,8 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="54">
-        <v>13</v>
+      <c r="C5" t="s" s="90">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="4" customFormat="1">
@@ -572,7 +611,7 @@
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="55">
+      <c r="C6" t="s" s="91">
         <v>13</v>
       </c>
     </row>
@@ -583,7 +622,7 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s" s="56">
+      <c r="C7" t="s" s="92">
         <v>13</v>
       </c>
     </row>
@@ -594,7 +633,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="57">
+      <c r="C8" t="s" s="93">
         <v>13</v>
       </c>
     </row>
@@ -605,8 +644,8 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s" s="58">
-        <v>13</v>
+      <c r="C9" t="s" s="94">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -665,6 +704,42 @@
     <hyperlink ref="C7" r:id="rId53"/>
     <hyperlink ref="C8" r:id="rId54"/>
     <hyperlink ref="C9" r:id="rId55"/>
+    <hyperlink ref="C1" r:id="rId56"/>
+    <hyperlink ref="C2" r:id="rId57"/>
+    <hyperlink ref="C3" r:id="rId58"/>
+    <hyperlink ref="C4" r:id="rId59"/>
+    <hyperlink ref="C5" r:id="rId60"/>
+    <hyperlink ref="C6" r:id="rId61"/>
+    <hyperlink ref="C7" r:id="rId62"/>
+    <hyperlink ref="C8" r:id="rId63"/>
+    <hyperlink ref="C9" r:id="rId64"/>
+    <hyperlink ref="C1" r:id="rId65"/>
+    <hyperlink ref="C2" r:id="rId66"/>
+    <hyperlink ref="C3" r:id="rId67"/>
+    <hyperlink ref="C4" r:id="rId68"/>
+    <hyperlink ref="C5" r:id="rId69"/>
+    <hyperlink ref="C6" r:id="rId70"/>
+    <hyperlink ref="C7" r:id="rId71"/>
+    <hyperlink ref="C8" r:id="rId72"/>
+    <hyperlink ref="C9" r:id="rId73"/>
+    <hyperlink ref="C1" r:id="rId74"/>
+    <hyperlink ref="C2" r:id="rId75"/>
+    <hyperlink ref="C3" r:id="rId76"/>
+    <hyperlink ref="C4" r:id="rId77"/>
+    <hyperlink ref="C5" r:id="rId78"/>
+    <hyperlink ref="C6" r:id="rId79"/>
+    <hyperlink ref="C7" r:id="rId80"/>
+    <hyperlink ref="C8" r:id="rId81"/>
+    <hyperlink ref="C9" r:id="rId82"/>
+    <hyperlink ref="C1" r:id="rId83"/>
+    <hyperlink ref="C2" r:id="rId84"/>
+    <hyperlink ref="C3" r:id="rId85"/>
+    <hyperlink ref="C4" r:id="rId86"/>
+    <hyperlink ref="C5" r:id="rId87"/>
+    <hyperlink ref="C6" r:id="rId88"/>
+    <hyperlink ref="C7" r:id="rId89"/>
+    <hyperlink ref="C8" r:id="rId90"/>
+    <hyperlink ref="C9" r:id="rId91"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
